--- a/data-raw/fieldplayers_overall_season_2014.xlsx
+++ b/data-raw/fieldplayers_overall_season_2014.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="9680" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>Nicole Barnhart</t>
   </si>
   <si>
-    <t>Sonia BermÃºdez</t>
-  </si>
-  <si>
     <t>Michelle Betos</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Liz Bogus</t>
   </si>
   <si>
-    <t>VerÃ³nica Boquete</t>
-  </si>
-  <si>
     <t>Shannon Boxx</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>Niki Cross</t>
   </si>
   <si>
-    <t>Renae CuÃ©llar</t>
-  </si>
-  <si>
     <t>Bianca D'Agostino</t>
   </si>
   <si>
@@ -569,9 +560,6 @@
     <t>Heather O'Reilly</t>
   </si>
   <si>
-    <t>MÃ³nica Ocampo</t>
-  </si>
-  <si>
     <t>Stephanie Ochs</t>
   </si>
   <si>
@@ -774,6 +762,18 @@
   </si>
   <si>
     <t>McCall Zerboni</t>
+  </si>
+  <si>
+    <t>Sonia Bermúdez</t>
+  </si>
+  <si>
+    <t>Verónica Boquete</t>
+  </si>
+  <si>
+    <t>Renae Cuéllar</t>
+  </si>
+  <si>
+    <t>Mónica Ocampo</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1724,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -1770,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1808,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -1817,7 +1817,7 @@
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2">
         <v>26</v>
@@ -1854,7 +1854,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
@@ -1900,7 +1900,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -1946,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1955,7 +1955,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2">
         <v>36</v>
@@ -1992,7 +1992,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
@@ -2038,7 +2038,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -2047,7 +2047,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2">
         <v>21</v>
@@ -2084,7 +2084,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
@@ -2130,7 +2130,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -2176,7 +2176,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
@@ -2222,16 +2222,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2">
         <v>26</v>
@@ -2268,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
@@ -2277,7 +2277,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2">
         <v>22</v>
@@ -2314,7 +2314,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>21</v>
@@ -2323,7 +2323,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2">
         <v>27</v>
@@ -2352,7 +2352,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>28</v>
@@ -2398,7 +2398,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>21</v>
@@ -2407,7 +2407,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2">
         <v>30</v>
@@ -2444,7 +2444,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>21</v>
@@ -2490,7 +2490,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>21</v>
@@ -2536,7 +2536,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
@@ -2582,7 +2582,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>21</v>
@@ -2628,7 +2628,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>21</v>
@@ -2674,7 +2674,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>28</v>
@@ -2720,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>28</v>
@@ -2766,7 +2766,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>21</v>
@@ -2812,7 +2812,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>21</v>
@@ -2858,7 +2858,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>21</v>
@@ -2867,7 +2867,7 @@
         <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2">
         <v>21</v>
@@ -2904,7 +2904,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>21</v>
@@ -2913,7 +2913,7 @@
         <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2">
         <v>21</v>
@@ -2950,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>21</v>
@@ -2996,7 +2996,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>21</v>
@@ -3042,7 +3042,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>21</v>
@@ -3088,7 +3088,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>21</v>
@@ -3097,7 +3097,7 @@
         <v>36</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2">
         <v>25</v>
@@ -3134,7 +3134,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
@@ -3143,7 +3143,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2">
         <v>20</v>
@@ -3180,7 +3180,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>21</v>
@@ -3189,7 +3189,7 @@
         <v>22</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2">
         <v>21</v>
@@ -3226,7 +3226,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>21</v>
@@ -3235,7 +3235,7 @@
         <v>29</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2">
         <v>26</v>
@@ -3272,16 +3272,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2">
         <v>24</v>
@@ -3318,7 +3318,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>21</v>
@@ -3327,7 +3327,7 @@
         <v>36</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2">
         <v>21</v>
@@ -3364,7 +3364,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>21</v>
@@ -3410,10 +3410,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>18</v>
@@ -3456,7 +3456,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>21</v>
@@ -3502,16 +3502,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2">
         <v>23</v>
@@ -3548,10 +3548,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>41</v>
@@ -3594,7 +3594,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>21</v>
@@ -3640,7 +3640,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>28</v>
@@ -3649,7 +3649,7 @@
         <v>31</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2">
         <v>19</v>
@@ -3686,7 +3686,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>21</v>
@@ -3732,7 +3732,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>21</v>
@@ -3741,7 +3741,7 @@
         <v>41</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2">
         <v>23</v>
@@ -3778,7 +3778,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
@@ -3824,10 +3824,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>29</v>
@@ -3870,7 +3870,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>21</v>
@@ -3916,7 +3916,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>21</v>
@@ -3925,7 +3925,7 @@
         <v>29</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F62" s="2">
         <v>23</v>
@@ -3962,7 +3962,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
@@ -4008,7 +4008,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>21</v>
@@ -4054,7 +4054,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>21</v>
@@ -4100,10 +4100,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>34</v>
@@ -4138,7 +4138,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>21</v>
@@ -4176,7 +4176,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>21</v>
@@ -4185,7 +4185,7 @@
         <v>18</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2">
         <v>21</v>
@@ -4222,7 +4222,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>21</v>
@@ -4268,7 +4268,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>21</v>
@@ -4277,7 +4277,7 @@
         <v>36</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2">
         <v>22</v>
@@ -4314,7 +4314,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>21</v>
@@ -4323,7 +4323,7 @@
         <v>29</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2">
         <v>27</v>
@@ -4360,7 +4360,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>21</v>
@@ -4406,7 +4406,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>21</v>
@@ -4415,7 +4415,7 @@
         <v>22</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F73" s="2">
         <v>24</v>
@@ -4452,7 +4452,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>21</v>
@@ -4461,7 +4461,7 @@
         <v>34</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F74" s="2">
         <v>23</v>
@@ -4490,7 +4490,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>21</v>
@@ -4536,7 +4536,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>21</v>
@@ -4545,7 +4545,7 @@
         <v>22</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2">
         <v>23</v>
@@ -4582,7 +4582,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>21</v>
@@ -4628,7 +4628,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>21</v>
@@ -4674,7 +4674,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>21</v>
@@ -4683,7 +4683,7 @@
         <v>41</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2">
         <v>23</v>
@@ -4720,7 +4720,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>21</v>
@@ -4729,7 +4729,7 @@
         <v>36</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2">
         <v>22</v>
@@ -4766,7 +4766,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>21</v>
@@ -4775,7 +4775,7 @@
         <v>36</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2">
         <v>22</v>
@@ -4812,7 +4812,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>21</v>
@@ -4850,7 +4850,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>21</v>
@@ -4896,7 +4896,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
@@ -4942,10 +4942,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>22</v>
@@ -4988,7 +4988,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
@@ -5026,7 +5026,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>21</v>
@@ -5072,7 +5072,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
@@ -5118,10 +5118,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>18</v>
@@ -5164,7 +5164,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>21</v>
@@ -5210,16 +5210,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F91" s="2">
         <v>24</v>
@@ -5256,7 +5256,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>21</v>
@@ -5265,7 +5265,7 @@
         <v>36</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2">
         <v>25</v>
@@ -5302,7 +5302,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>21</v>
@@ -5348,7 +5348,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>21</v>
@@ -5386,7 +5386,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>21</v>
@@ -5432,10 +5432,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>41</v>
@@ -5478,16 +5478,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F97" s="2">
         <v>25</v>
@@ -5524,7 +5524,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>21</v>
@@ -5570,16 +5570,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F99" s="2">
         <v>33</v>
@@ -5608,16 +5608,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F100" s="2">
         <v>21</v>
@@ -5654,7 +5654,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>21</v>
@@ -5700,7 +5700,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>21</v>
@@ -5746,7 +5746,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>21</v>
@@ -5755,7 +5755,7 @@
         <v>29</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2">
         <v>23</v>
@@ -5792,7 +5792,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>21</v>
@@ -5838,7 +5838,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>21</v>
@@ -5847,7 +5847,7 @@
         <v>29</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F105" s="2">
         <v>23</v>
@@ -5884,10 +5884,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>22</v>
@@ -5930,7 +5930,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>21</v>
@@ -5976,7 +5976,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>21</v>
@@ -6022,7 +6022,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>21</v>
@@ -6031,7 +6031,7 @@
         <v>29</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2">
         <v>26</v>
@@ -6068,7 +6068,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>21</v>
@@ -6114,7 +6114,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
@@ -6160,7 +6160,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>21</v>
@@ -6169,7 +6169,7 @@
         <v>34</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F112" s="2">
         <v>28</v>
@@ -6198,7 +6198,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>21</v>
@@ -6207,7 +6207,7 @@
         <v>41</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2">
         <v>24</v>
@@ -6244,7 +6244,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>21</v>
@@ -6290,7 +6290,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>21</v>
@@ -6336,7 +6336,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>21</v>
@@ -6345,7 +6345,7 @@
         <v>18</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2">
         <v>27</v>
@@ -6382,10 +6382,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>41</v>
@@ -6428,7 +6428,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>21</v>
@@ -6474,7 +6474,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>21</v>
@@ -6483,7 +6483,7 @@
         <v>22</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F119" s="2">
         <v>24</v>
@@ -6520,7 +6520,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>21</v>
@@ -6529,7 +6529,7 @@
         <v>18</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F120" s="2">
         <v>23</v>
@@ -6566,7 +6566,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>21</v>
@@ -6575,7 +6575,7 @@
         <v>41</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F121" s="2">
         <v>21</v>
@@ -6612,7 +6612,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>21</v>
@@ -6658,7 +6658,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>21</v>
@@ -6667,7 +6667,7 @@
         <v>41</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F123" s="2">
         <v>21</v>
@@ -6704,16 +6704,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F124" s="2">
         <v>30</v>
@@ -6742,7 +6742,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>21</v>
@@ -6788,7 +6788,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>21</v>
@@ -6834,7 +6834,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>21</v>
@@ -6880,7 +6880,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>21</v>
@@ -6926,7 +6926,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>21</v>
@@ -6935,7 +6935,7 @@
         <v>41</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F129" s="2">
         <v>21</v>
@@ -6972,7 +6972,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>21</v>
@@ -6981,7 +6981,7 @@
         <v>29</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F130" s="2">
         <v>22</v>
@@ -7018,10 +7018,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>29</v>
@@ -7064,16 +7064,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F132" s="2">
         <v>26</v>
@@ -7110,7 +7110,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>21</v>
@@ -7148,7 +7148,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>21</v>
@@ -7194,7 +7194,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>21</v>
@@ -7203,7 +7203,7 @@
         <v>41</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F135" s="2">
         <v>26</v>
@@ -7240,7 +7240,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>21</v>
@@ -7286,7 +7286,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
@@ -7295,7 +7295,7 @@
         <v>22</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2">
         <v>23</v>
@@ -7332,7 +7332,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>21</v>
@@ -7341,7 +7341,7 @@
         <v>31</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F138" s="2">
         <v>25</v>
@@ -7378,7 +7378,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>21</v>
@@ -7424,7 +7424,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -7433,7 +7433,7 @@
         <v>18</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F140" s="2">
         <v>27</v>
@@ -7470,7 +7470,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>21</v>
@@ -7479,7 +7479,7 @@
         <v>18</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F141" s="2">
         <v>23</v>
@@ -7516,7 +7516,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>21</v>
@@ -7525,7 +7525,7 @@
         <v>22</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F142" s="2">
         <v>22</v>
@@ -7562,16 +7562,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F143" s="2">
         <v>21</v>
@@ -7608,7 +7608,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>21</v>
@@ -7654,7 +7654,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>21</v>
@@ -7700,7 +7700,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>21</v>
@@ -7746,7 +7746,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>21</v>
@@ -7755,7 +7755,7 @@
         <v>29</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F147" s="2">
         <v>38</v>
@@ -7792,7 +7792,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -7834,10 +7834,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>36</v>
@@ -7880,7 +7880,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>21</v>
@@ -7889,7 +7889,7 @@
         <v>18</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F150" s="2">
         <v>25</v>
@@ -7926,7 +7926,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>21</v>
@@ -7972,16 +7972,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F152" s="2">
         <v>22</v>
@@ -8018,7 +8018,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>21</v>
@@ -8064,7 +8064,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>21</v>
@@ -8073,7 +8073,7 @@
         <v>18</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F154" s="2">
         <v>22</v>
@@ -8110,7 +8110,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>21</v>
@@ -8156,7 +8156,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>21</v>
@@ -8202,7 +8202,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>21</v>
@@ -8248,16 +8248,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F158" s="2">
         <v>21</v>
@@ -8294,7 +8294,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>21</v>
@@ -8340,7 +8340,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>21</v>
@@ -8386,7 +8386,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
@@ -8395,7 +8395,7 @@
         <v>29</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2">
         <v>21</v>
@@ -8432,7 +8432,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>21</v>
@@ -8478,10 +8478,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>18</v>
@@ -8524,7 +8524,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>21</v>
@@ -8533,7 +8533,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F164" s="2">
         <v>26</v>
@@ -8570,7 +8570,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>21</v>
@@ -8616,16 +8616,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F166" s="2">
         <v>25</v>
@@ -8662,7 +8662,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>21</v>
@@ -8708,7 +8708,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>21</v>
@@ -8754,7 +8754,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>17</v>
@@ -8800,7 +8800,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>17</v>
@@ -8846,7 +8846,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>21</v>
@@ -8892,10 +8892,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>22</v>
@@ -8938,7 +8938,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>21</v>
@@ -8984,7 +8984,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>21</v>
@@ -8993,7 +8993,7 @@
         <v>36</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F174" s="2">
         <v>30</v>
@@ -9030,7 +9030,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>21</v>
@@ -9076,7 +9076,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>21</v>
@@ -9114,16 +9114,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F177" s="2">
         <v>22</v>
@@ -9160,7 +9160,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>21</v>
@@ -9206,7 +9206,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>21</v>
@@ -9215,7 +9215,7 @@
         <v>41</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F179" s="2">
         <v>23</v>
@@ -9252,10 +9252,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>41</v>
@@ -9298,7 +9298,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>21</v>
@@ -9344,16 +9344,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F182" s="2">
         <v>32</v>
@@ -9390,7 +9390,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>21</v>
@@ -9436,10 +9436,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>18</v>
@@ -9482,7 +9482,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>21</v>
@@ -9528,7 +9528,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>21</v>
@@ -9537,7 +9537,7 @@
         <v>29</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F186" s="2">
         <v>23</v>
@@ -9574,7 +9574,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>21</v>
@@ -9583,7 +9583,7 @@
         <v>29</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F187" s="2">
         <v>24</v>
@@ -9620,7 +9620,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>21</v>
@@ -9666,7 +9666,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>21</v>
@@ -9712,7 +9712,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>21</v>
@@ -9721,7 +9721,7 @@
         <v>34</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F190" s="2">
         <v>22</v>
@@ -9750,7 +9750,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>21</v>
@@ -9796,7 +9796,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>21</v>
@@ -9842,7 +9842,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>21</v>
@@ -9888,7 +9888,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>21</v>
@@ -9897,7 +9897,7 @@
         <v>22</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F194" s="2">
         <v>25</v>
@@ -9934,7 +9934,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>21</v>
@@ -9943,7 +9943,7 @@
         <v>18</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F195" s="2">
         <v>26</v>
@@ -9980,7 +9980,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>21</v>
@@ -10026,7 +10026,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>21</v>
@@ -10072,7 +10072,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>28</v>
@@ -10110,7 +10110,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>21</v>
@@ -10156,7 +10156,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>21</v>
@@ -10202,7 +10202,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>21</v>
@@ -10248,7 +10248,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>21</v>
@@ -10294,7 +10294,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>21</v>
@@ -10332,7 +10332,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>21</v>
@@ -10378,7 +10378,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>21</v>
